--- a/app/functions/exports/5.xlsx
+++ b/app/functions/exports/5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>PROPOSTA - FÉRIAS DE INVERNO</t>
   </si>
@@ -125,7 +125,13 @@
     <t>R$ 9,60</t>
   </si>
   <si>
-    <t>0,00%</t>
+    <t>8,00%</t>
+  </si>
+  <si>
+    <t>R$ 11,04</t>
+  </si>
+  <si>
+    <t>R$ 8,83</t>
   </si>
   <si>
     <t>R$ 960,00</t>
@@ -167,6 +173,9 @@
     <t>R$ 1,87</t>
   </si>
   <si>
+    <t>0%</t>
+  </si>
+  <si>
     <t>R$ 1.321,29</t>
   </si>
   <si>
@@ -197,7 +206,7 @@
     <t>R$ 1,32</t>
   </si>
   <si>
-    <t>12.00,00%</t>
+    <t>12,00%</t>
   </si>
   <si>
     <t>R$ 1,45</t>
@@ -1022,7 +1031,7 @@
         <v>32</v>
       </c>
       <c r="J10" s="8">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>33</v>
@@ -1037,18 +1046,18 @@
         <v>36</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="22">
       <c r="G11" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1063,12 +1072,12 @@
     </row>
     <row r="13" spans="1:17" customHeight="1" ht="35">
       <c r="B13" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -1135,52 +1144,52 @@
     </row>
     <row r="15" spans="1:17" customHeight="1" ht="18">
       <c r="B15" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J15" s="8">
         <v>706</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="18">
@@ -1193,39 +1202,39 @@
         <v>30</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J16" s="8">
         <v>199</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="O16" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="22">
       <c r="G17" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -1240,28 +1249,28 @@
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="18">
       <c r="B18" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J18" s="13">
         <v>114</v>
@@ -1270,27 +1279,27 @@
         <v>33</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="22">
       <c r="G19" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1305,12 +1314,12 @@
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="35">
       <c r="B21" s="14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
@@ -1377,57 +1386,57 @@
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="18">
       <c r="B23" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>30</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" customHeight="1" ht="22">
       <c r="G24" s="16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -1442,52 +1451,52 @@
     </row>
     <row r="25" spans="1:17" customHeight="1" ht="18">
       <c r="B25" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J25" s="13">
         <v>9.797</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="18">
@@ -1500,39 +1509,39 @@
         <v>30</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J26" s="13">
         <v>37</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q26" s="13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:17" customHeight="1" ht="22">
       <c r="G27" s="16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
@@ -1547,57 +1556,57 @@
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="18">
       <c r="B28" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>30</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J28" s="8">
         <v>259</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="22">
       <c r="G29" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
